--- a/assets/Analysis_data_array.xlsx
+++ b/assets/Analysis_data_array.xlsx
@@ -4189,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="A586" activeCellId="18" sqref="A51:XFD51 A64:XFD64 A65:XFD65 A72:XFD75 A79:XFD83 A98:XFD100 A108:XFD109 A117:XFD120 A141:XFD141 A147:XFD148 A155:XFD155 A157:XFD157 A187:XFD190 A209:XFD211 A223:XFD226 A253:XFD255 A283:XFD283 A441:XFD443 A586:XFD586"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
